--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1802,28 +1802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.6011055951644</v>
+        <v>245.1025665816268</v>
       </c>
       <c r="AB2" t="n">
-        <v>285.4172355064476</v>
+        <v>335.3601447589077</v>
       </c>
       <c r="AC2" t="n">
-        <v>258.1774151354022</v>
+        <v>303.3538432241368</v>
       </c>
       <c r="AD2" t="n">
-        <v>208601.1055951644</v>
+        <v>245102.5665816268</v>
       </c>
       <c r="AE2" t="n">
-        <v>285417.2355064476</v>
+        <v>335360.1447589077</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.120479575094573e-06</v>
+        <v>5.773704200504027e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.869791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>258177.4151354022</v>
+        <v>303353.8432241367</v>
       </c>
     </row>
     <row r="3">
@@ -1908,28 +1908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.789033737859</v>
+        <v>123.984723860088</v>
       </c>
       <c r="AB3" t="n">
-        <v>152.9546877441738</v>
+        <v>169.6413690052748</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.3569070191642</v>
+        <v>153.4510348406152</v>
       </c>
       <c r="AD3" t="n">
-        <v>111789.033737859</v>
+        <v>123984.723860088</v>
       </c>
       <c r="AE3" t="n">
-        <v>152954.6877441738</v>
+        <v>169641.3690052748</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.827770865567295e-06</v>
+        <v>8.932640081373413e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.147786458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>138356.9070191642</v>
+        <v>153451.0348406152</v>
       </c>
     </row>
     <row r="4">
@@ -2014,28 +2014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>91.93159108883502</v>
+        <v>116.2374514616194</v>
       </c>
       <c r="AB4" t="n">
-        <v>125.7848586632516</v>
+        <v>159.0412091241591</v>
       </c>
       <c r="AC4" t="n">
-        <v>113.7801282926219</v>
+        <v>143.862539341132</v>
       </c>
       <c r="AD4" t="n">
-        <v>91931.59108883502</v>
+        <v>116237.4514616194</v>
       </c>
       <c r="AE4" t="n">
-        <v>125784.8586632516</v>
+        <v>159041.2091241591</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.089289125690565e-06</v>
+        <v>9.416517331855484e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.986653645833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>113780.1282926219</v>
+        <v>143862.539341132</v>
       </c>
     </row>
   </sheetData>
@@ -2311,28 +2311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.6474797470767</v>
+        <v>179.0896526664903</v>
       </c>
       <c r="AB2" t="n">
-        <v>212.9637484720351</v>
+        <v>245.03836365604</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.6387872144232</v>
+        <v>221.652246142282</v>
       </c>
       <c r="AD2" t="n">
-        <v>155647.4797470767</v>
+        <v>179089.6526664903</v>
       </c>
       <c r="AE2" t="n">
-        <v>212963.7484720351</v>
+        <v>245038.36365604</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.858798098732393e-06</v>
+        <v>7.355464713750333e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.073893229166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>192638.7872144232</v>
+        <v>221652.246142282</v>
       </c>
     </row>
     <row r="3">
@@ -2417,28 +2417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.56604147194727</v>
+        <v>111.3298431132154</v>
       </c>
       <c r="AB3" t="n">
-        <v>136.2306504856007</v>
+        <v>152.3264028734762</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.2289884042103</v>
+        <v>137.7885847747224</v>
       </c>
       <c r="AD3" t="n">
-        <v>99566.04147194728</v>
+        <v>111329.8431132154</v>
       </c>
       <c r="AE3" t="n">
-        <v>136230.6504856007</v>
+        <v>152326.4028734762</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.166667167988884e-06</v>
+        <v>9.848465006323753e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.0419921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>123228.9884042102</v>
+        <v>137788.5847747223</v>
       </c>
     </row>
   </sheetData>
@@ -2714,28 +2714,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.16847759235138</v>
+        <v>111.9247703741406</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.7407331111718</v>
+        <v>153.1404085982121</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.8356526177928</v>
+        <v>138.5249029355539</v>
       </c>
       <c r="AD2" t="n">
-        <v>91168.47759235138</v>
+        <v>111924.7703741406</v>
       </c>
       <c r="AE2" t="n">
-        <v>124740.7331111718</v>
+        <v>153140.4085982121</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.025582958176125e-06</v>
+        <v>1.070317649110858e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.4912109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>112835.6526177928</v>
+        <v>138524.902935554</v>
       </c>
     </row>
   </sheetData>
@@ -3011,28 +3011,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.47449443234093</v>
+        <v>104.4463799870922</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.8959270859268</v>
+        <v>142.9081449473584</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.6897193079408</v>
+        <v>129.2691921664623</v>
       </c>
       <c r="AD2" t="n">
-        <v>93474.49443234093</v>
+        <v>104446.3799870922</v>
       </c>
       <c r="AE2" t="n">
-        <v>127895.9270859268</v>
+        <v>142908.1449473584</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.157962477551363e-06</v>
+        <v>1.047244710037048e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.253580729166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>115689.7193079408</v>
+        <v>129269.1921664623</v>
       </c>
     </row>
     <row r="3">
@@ -3117,28 +3117,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.11387123141424</v>
+        <v>104.0857567861655</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.4025065128464</v>
+        <v>142.414724374278</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.2433901018349</v>
+        <v>128.8228629603563</v>
       </c>
       <c r="AD3" t="n">
-        <v>93113.87123141423</v>
+        <v>104085.7567861655</v>
       </c>
       <c r="AE3" t="n">
-        <v>127402.5065128464</v>
+        <v>142414.724374278</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.185491681995177e-06</v>
+        <v>1.052834090310903e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.235677083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>115243.3901018349</v>
+        <v>128822.8629603563</v>
       </c>
     </row>
   </sheetData>
@@ -3414,28 +3414,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.20165751098008</v>
+        <v>112.2946341049668</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.15437545652</v>
+        <v>153.6464724719643</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.1143789217609</v>
+        <v>138.9826687834606</v>
       </c>
       <c r="AD2" t="n">
-        <v>92201.65751098009</v>
+        <v>112294.6341049668</v>
       </c>
       <c r="AE2" t="n">
-        <v>126154.37545652</v>
+        <v>153646.4724719643</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.72642070853813e-06</v>
+        <v>1.052481573432168e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.854166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>114114.3789217609</v>
+        <v>138982.6687834605</v>
       </c>
     </row>
   </sheetData>
@@ -3711,28 +3711,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.1727892213653</v>
+        <v>190.8419985305281</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.7331853555174</v>
+        <v>261.1184417441157</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.9032111742947</v>
+        <v>236.1976641461682</v>
       </c>
       <c r="AD2" t="n">
-        <v>167172.7892213653</v>
+        <v>190841.9985305281</v>
       </c>
       <c r="AE2" t="n">
-        <v>228733.1853555174</v>
+        <v>261118.4417441157</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.660360897865608e-06</v>
+        <v>6.920877399731927e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.256184895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>206903.2111742946</v>
+        <v>236197.6641461682</v>
       </c>
     </row>
     <row r="3">
@@ -3817,28 +3817,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.7509220959376</v>
+        <v>112.6282419320804</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.8518564285874</v>
+        <v>154.1029294187595</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.6954687273756</v>
+        <v>139.3955621198951</v>
       </c>
       <c r="AD3" t="n">
-        <v>100750.9220959376</v>
+        <v>112628.2419320804</v>
       </c>
       <c r="AE3" t="n">
-        <v>137851.8564285873</v>
+        <v>154102.9294187595</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.143610616056175e-06</v>
+        <v>9.725352078381699e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.028971354166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>124695.4687273756</v>
+        <v>139395.5621198951</v>
       </c>
     </row>
     <row r="4">
@@ -3923,28 +3923,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>100.5301412226364</v>
+        <v>112.4074610587791</v>
       </c>
       <c r="AB4" t="n">
-        <v>137.549774297572</v>
+        <v>153.8008472877441</v>
       </c>
       <c r="AC4" t="n">
-        <v>124.4222168909693</v>
+        <v>139.1223102834888</v>
       </c>
       <c r="AD4" t="n">
-        <v>100530.1412226364</v>
+        <v>112407.4610587791</v>
       </c>
       <c r="AE4" t="n">
-        <v>137549.774297572</v>
+        <v>153800.8472877441</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.163041417088227e-06</v>
+        <v>9.762091131025343e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.017578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>124422.2168909693</v>
+        <v>139122.3102834888</v>
       </c>
     </row>
   </sheetData>
@@ -4220,28 +4220,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.7636949634762</v>
+        <v>123.2776215870528</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.9740651801098</v>
+        <v>168.6738804801579</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.4242596612104</v>
+        <v>152.5758820624565</v>
       </c>
       <c r="AD2" t="n">
-        <v>103763.6949634762</v>
+        <v>123277.6215870529</v>
       </c>
       <c r="AE2" t="n">
-        <v>141974.0651801098</v>
+        <v>168673.8804801579</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.475065086821531e-06</v>
+        <v>1.025938541400764e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>128424.2596612104</v>
+        <v>152575.8820624565</v>
       </c>
     </row>
   </sheetData>
@@ -4517,28 +4517,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.4316147279957</v>
+        <v>136.2221960613093</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.2021395204366</v>
+        <v>186.3852183501481</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.3898651522195</v>
+        <v>168.5968747041593</v>
       </c>
       <c r="AD2" t="n">
-        <v>113431.6147279956</v>
+        <v>136222.1960613093</v>
       </c>
       <c r="AE2" t="n">
-        <v>155202.1395204366</v>
+        <v>186385.2183501481</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.548059112041652e-06</v>
+        <v>8.914133005724059e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.561197916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>140389.8651522195</v>
+        <v>168596.8747041593</v>
       </c>
     </row>
     <row r="3">
@@ -4623,28 +4623,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.87100169160171</v>
+        <v>107.2663818668096</v>
       </c>
       <c r="AB3" t="n">
-        <v>131.1749340444842</v>
+        <v>146.7665959288884</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.6557824444898</v>
+        <v>132.7593980016862</v>
       </c>
       <c r="AD3" t="n">
-        <v>95871.0016916017</v>
+        <v>107266.3818668096</v>
       </c>
       <c r="AE3" t="n">
-        <v>131174.9340444843</v>
+        <v>146766.5959288884</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.215097167049316e-06</v>
+        <v>1.022151837511706e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.10546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>118655.7824444898</v>
+        <v>132759.3980016862</v>
       </c>
     </row>
   </sheetData>
@@ -4920,28 +4920,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.8973925680804</v>
+        <v>157.1891471000893</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.2043196476224</v>
+        <v>215.0731257579893</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.7195565093823</v>
+        <v>194.5468484927362</v>
       </c>
       <c r="AD2" t="n">
-        <v>133897.3925680805</v>
+        <v>157189.1471000893</v>
       </c>
       <c r="AE2" t="n">
-        <v>183204.3196476224</v>
+        <v>215073.1257579893</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.054185852388036e-06</v>
+        <v>7.794995630297391e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.914388020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>165719.5565093823</v>
+        <v>194546.8484927362</v>
       </c>
     </row>
     <row r="3">
@@ -5026,28 +5026,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.29850261750136</v>
+        <v>109.9444693920568</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.4963479050811</v>
+        <v>150.4308734298129</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.6602052278659</v>
+        <v>136.0739620007695</v>
       </c>
       <c r="AD3" t="n">
-        <v>98298.50261750136</v>
+        <v>109944.4693920568</v>
       </c>
       <c r="AE3" t="n">
-        <v>134496.3479050811</v>
+        <v>150430.8734298129</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.184833739456137e-06</v>
+        <v>9.968895806558298e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.0615234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>121660.2052278659</v>
+        <v>136073.9620007694</v>
       </c>
     </row>
   </sheetData>
@@ -5323,28 +5323,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>193.4960024531631</v>
+        <v>229.6892279166995</v>
       </c>
       <c r="AB2" t="n">
-        <v>264.7497669974526</v>
+        <v>314.2709348090541</v>
       </c>
       <c r="AC2" t="n">
-        <v>239.4824208139248</v>
+        <v>284.2773578729984</v>
       </c>
       <c r="AD2" t="n">
-        <v>193496.0024531631</v>
+        <v>229689.2279166995</v>
       </c>
       <c r="AE2" t="n">
-        <v>264749.7669974526</v>
+        <v>314270.9348090541</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.291581365756107e-06</v>
+        <v>6.131966429726953e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.6533203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>239482.4208139248</v>
+        <v>284277.3578729984</v>
       </c>
     </row>
     <row r="3">
@@ -5429,28 +5429,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.0563562623827</v>
+        <v>119.1493012103031</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.4792296312359</v>
+        <v>163.0253304120507</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.4994575401604</v>
+        <v>147.4664216850578</v>
       </c>
       <c r="AD3" t="n">
-        <v>107056.3562623827</v>
+        <v>119149.3012103031</v>
       </c>
       <c r="AE3" t="n">
-        <v>146479.2296312359</v>
+        <v>163025.3304120507</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.964711702293978e-06</v>
+        <v>9.248881345743701e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.0859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>132499.4575401605</v>
+        <v>147466.4216850578</v>
       </c>
     </row>
     <row r="4">
@@ -5535,28 +5535,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>90.81075784628555</v>
+        <v>114.9111278704527</v>
       </c>
       <c r="AB4" t="n">
-        <v>124.2512851731233</v>
+        <v>157.2264746734585</v>
       </c>
       <c r="AC4" t="n">
-        <v>112.3929169040071</v>
+        <v>142.2210005994099</v>
       </c>
       <c r="AD4" t="n">
-        <v>90810.75784628556</v>
+        <v>114911.1278704527</v>
       </c>
       <c r="AE4" t="n">
-        <v>124251.2851731234</v>
+        <v>157226.4746734585</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.119244271345345e-06</v>
+        <v>9.536763801143606e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.991536458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>112392.9169040071</v>
+        <v>142221.0005994099</v>
       </c>
     </row>
   </sheetData>
@@ -5832,28 +5832,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.89929603551646</v>
+        <v>119.969670813142</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.9501358478581</v>
+        <v>164.1477962948069</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.1661228827707</v>
+        <v>148.4817609993549</v>
       </c>
       <c r="AD2" t="n">
-        <v>97899.29603551645</v>
+        <v>119969.670813142</v>
       </c>
       <c r="AE2" t="n">
-        <v>133950.1358478582</v>
+        <v>164147.7962948069</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.020101539864374e-06</v>
+        <v>1.006278025831065e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.30078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>121166.1228827707</v>
+        <v>148481.7609993549</v>
       </c>
     </row>
     <row r="3">
@@ -5938,28 +5938,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.24510898581805</v>
+        <v>105.365681983478</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.9503159151084</v>
+        <v>144.1659744955546</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.6434787471097</v>
+        <v>130.4069762279539</v>
       </c>
       <c r="AD3" t="n">
-        <v>94245.10898581805</v>
+        <v>105365.681983478</v>
       </c>
       <c r="AE3" t="n">
-        <v>128950.3159151084</v>
+        <v>144165.9744955546</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.195325544044526e-06</v>
+        <v>1.041401631121602e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.190104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>116643.4787471097</v>
+        <v>130406.9762279539</v>
       </c>
     </row>
   </sheetData>
@@ -6235,28 +6235,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.5343104839941</v>
+        <v>112.6542162971457</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.2412818129252</v>
+        <v>154.13846869095</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.2884296539756</v>
+        <v>139.4277095738275</v>
       </c>
       <c r="AD2" t="n">
-        <v>91534.31048399411</v>
+        <v>112654.2162971457</v>
       </c>
       <c r="AE2" t="n">
-        <v>125241.2818129252</v>
+        <v>154138.46869095</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.103815427560702e-06</v>
+        <v>1.067750105644226e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.382161458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>113288.4296539756</v>
+        <v>139427.7095738275</v>
       </c>
     </row>
   </sheetData>
@@ -10313,28 +10313,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.39917106890373</v>
+        <v>111.9299414746915</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.0563781032684</v>
+        <v>153.1474839261185</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.1211728948545</v>
+        <v>138.5313030040953</v>
       </c>
       <c r="AD2" t="n">
-        <v>91399.17106890373</v>
+        <v>111929.9414746915</v>
       </c>
       <c r="AE2" t="n">
-        <v>125056.3781032684</v>
+        <v>153147.4839261185</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.898632912864404e-06</v>
+        <v>1.064892142204082e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.645833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>113121.1728948544</v>
+        <v>138531.3030040953</v>
       </c>
     </row>
   </sheetData>
@@ -10610,28 +10610,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.2823416034614</v>
+        <v>136.7341327720112</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.156676861555</v>
+        <v>187.0856727427837</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.0168115611305</v>
+        <v>169.2304787126559</v>
       </c>
       <c r="AD2" t="n">
-        <v>108282.3416034614</v>
+        <v>136734.1327720112</v>
       </c>
       <c r="AE2" t="n">
-        <v>148156.676861555</v>
+        <v>187085.6727427837</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.042974565074707e-06</v>
+        <v>9.616324015868133e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.7412109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>134016.8115611305</v>
+        <v>169230.4787126559</v>
       </c>
     </row>
   </sheetData>
@@ -10907,28 +10907,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.9606436984944</v>
+        <v>146.0071563008012</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.2401773489548</v>
+        <v>199.7734326317933</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.1835709493892</v>
+        <v>180.7073366052453</v>
       </c>
       <c r="AD2" t="n">
-        <v>122960.6436984944</v>
+        <v>146007.1563008012</v>
       </c>
       <c r="AE2" t="n">
-        <v>168240.1773489548</v>
+        <v>199773.4326317933</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.302345502197356e-06</v>
+        <v>8.349037868870477e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.7255859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>152183.5709493892</v>
+        <v>180707.3366052453</v>
       </c>
     </row>
     <row r="3">
@@ -11013,28 +11013,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.20330864035422</v>
+        <v>108.7266544500587</v>
       </c>
       <c r="AB3" t="n">
-        <v>132.9978551890008</v>
+        <v>148.7646052999685</v>
       </c>
       <c r="AC3" t="n">
-        <v>120.3047265534601</v>
+        <v>134.5667201626148</v>
       </c>
       <c r="AD3" t="n">
-        <v>97203.30864035423</v>
+        <v>108726.6544500587</v>
       </c>
       <c r="AE3" t="n">
-        <v>132997.8551890008</v>
+        <v>148764.6052999684</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.20232342672256e-06</v>
+        <v>1.009551540517498e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.0810546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>120304.7265534601</v>
+        <v>134566.7201626148</v>
       </c>
     </row>
   </sheetData>
@@ -11310,28 +11310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.4963495177885</v>
+        <v>203.3847595800165</v>
       </c>
       <c r="AB2" t="n">
-        <v>245.5948242301847</v>
+        <v>278.2800007595814</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.1555989002278</v>
+        <v>251.7213480556027</v>
       </c>
       <c r="AD2" t="n">
-        <v>179496.3495177885</v>
+        <v>203384.7595800165</v>
       </c>
       <c r="AE2" t="n">
-        <v>245594.8242301847</v>
+        <v>278280.0007595814</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.476960665562645e-06</v>
+        <v>6.524141974249795e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.441731770833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>222155.5989002278</v>
+        <v>251721.3480556027</v>
       </c>
     </row>
     <row r="3">
@@ -11416,28 +11416,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.9943591061421</v>
+        <v>114.9812793188175</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.9214259194033</v>
+        <v>157.3224589799746</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.4720828141569</v>
+        <v>142.307824298427</v>
       </c>
       <c r="AD3" t="n">
-        <v>102994.3591061421</v>
+        <v>114981.2793188175</v>
       </c>
       <c r="AE3" t="n">
-        <v>140921.4259194033</v>
+        <v>157322.4589799746</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.085909030317412e-06</v>
+        <v>9.543160183130943e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.037109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>127472.0828141569</v>
+        <v>142307.824298427</v>
       </c>
     </row>
     <row r="4">
@@ -11522,28 +11522,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>101.8786714840026</v>
+        <v>113.865591696678</v>
       </c>
       <c r="AB4" t="n">
-        <v>139.3948928941287</v>
+        <v>155.7959259547</v>
       </c>
       <c r="AC4" t="n">
-        <v>126.0912399583115</v>
+        <v>140.9269814425816</v>
       </c>
       <c r="AD4" t="n">
-        <v>101878.6714840026</v>
+        <v>113865.591696678</v>
       </c>
       <c r="AE4" t="n">
-        <v>139394.8928941287</v>
+        <v>155795.9259547</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.138196293601392e-06</v>
+        <v>9.641271597645454e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.006184895833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>126091.2399583115</v>
+        <v>140926.9814425816</v>
       </c>
     </row>
   </sheetData>
@@ -11819,28 +11819,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.1818149521592</v>
+        <v>164.651905095949</v>
       </c>
       <c r="AB2" t="n">
-        <v>175.3840142000344</v>
+        <v>225.2840004815661</v>
       </c>
       <c r="AC2" t="n">
-        <v>158.645610037842</v>
+        <v>203.7832116637507</v>
       </c>
       <c r="AD2" t="n">
-        <v>128181.8149521592</v>
+        <v>164651.905095949</v>
       </c>
       <c r="AE2" t="n">
-        <v>175384.0142000344</v>
+        <v>225284.0004815661</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.323942422528258e-06</v>
+        <v>8.312927746309444e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.970052083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>158645.610037842</v>
+        <v>203783.2116637507</v>
       </c>
     </row>
   </sheetData>
@@ -12116,28 +12116,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.34263855407229</v>
+        <v>113.7999403021656</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.3472719393233</v>
+        <v>155.7060988203933</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.2888656349775</v>
+        <v>140.8457272838998</v>
       </c>
       <c r="AD2" t="n">
-        <v>92342.6385540723</v>
+        <v>113799.9403021656</v>
       </c>
       <c r="AE2" t="n">
-        <v>126347.2719393233</v>
+        <v>155706.0988203933</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.142400407224139e-06</v>
+        <v>1.058966009362193e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.307291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>114288.8656349775</v>
+        <v>140845.7272838998</v>
       </c>
     </row>
     <row r="3">
@@ -12222,28 +12222,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.43201253856482</v>
+        <v>103.2460490214586</v>
       </c>
       <c r="AB3" t="n">
-        <v>126.4695573678078</v>
+        <v>141.2657991653146</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.3994803137962</v>
+        <v>127.7835895608094</v>
       </c>
       <c r="AD3" t="n">
-        <v>92432.01253856481</v>
+        <v>103246.0490214586</v>
       </c>
       <c r="AE3" t="n">
-        <v>126469.5573678078</v>
+        <v>141265.7991653146</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.155882434143331e-06</v>
+        <v>1.061742340863854e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.299153645833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>114399.4803137962</v>
+        <v>127783.5895608094</v>
       </c>
     </row>
   </sheetData>
@@ -12519,28 +12519,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.621540552182</v>
+        <v>126.9735630091366</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.1478073600529</v>
+        <v>173.7308305872781</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.4859815348576</v>
+        <v>157.1502039488288</v>
       </c>
       <c r="AD2" t="n">
-        <v>104621.5405521819</v>
+        <v>126973.5630091366</v>
       </c>
       <c r="AE2" t="n">
-        <v>143147.8073600529</v>
+        <v>173730.8305872781</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.810660964101678e-06</v>
+        <v>9.530805069252102e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.404947916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>129485.9815348576</v>
+        <v>157150.2039488288</v>
       </c>
     </row>
     <row r="3">
@@ -12625,28 +12625,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.12665995788711</v>
+        <v>106.3880567952116</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.1564928463768</v>
+        <v>145.5648328169612</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.7345398449381</v>
+        <v>131.6723294744758</v>
       </c>
       <c r="AD3" t="n">
-        <v>95126.65995788711</v>
+        <v>106388.0567952116</v>
       </c>
       <c r="AE3" t="n">
-        <v>130156.4928463768</v>
+        <v>145564.8328169612</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.204094927782942e-06</v>
+        <v>1.031027018713317e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.147786458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>117734.5398449381</v>
+        <v>131672.3294744758</v>
       </c>
     </row>
   </sheetData>
